--- a/xlsx/_wiki_抽象画中的越南少女_intext.xlsx
+++ b/xlsx/_wiki_抽象画中的越南少女_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>抽象画中的越南少女</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Muoi:_The_Legend_of_a_Portrait</t>
@@ -522,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,29 +1119,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_抽象画中的越南少女_intext.xlsx
+++ b/xlsx/_wiki_抽象画中的越南少女_intext.xlsx
@@ -23,127 +23,127 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%8A%BD%E8%B1%A1%E7%94%BB%E4%B8%AD%E7%9A%84%E8%B6%8A%E5%8D%97%E5%B0%91%E5%A5%B3</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%AE%89_(%E9%9F%93%E5%9C%8B%E8%97%9D%E4%BA%BA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%99%E5%AE%89_(%E9%9F%93%E5%9C%8B%E8%97%9D%E4%BA%BA)</t>
   </si>
   <si>
     <t>赵安 (韩国艺人)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%97%9D%E8%93%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BB%8A%E8%97%9D%E8%93%AE</t>
   </si>
   <si>
     <t>车艺莲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
     <t>大韩民国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%8A%E5%8D%97</t>
   </si>
   <si>
     <t>越南</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
     <t>韩语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
     <t>越南语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
     <t>中国大陆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
     <t>台湾</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%89%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%81%90%E6%80%96%E7%89%87</t>
   </si>
   <si>
     <t>恐怖片</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%B2%A2%E6%B7%AA%E9%99%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A5%BF%E8%B2%A2%E6%B7%AA%E9%99%B7</t>
   </si>
   <si>
     <t>西贡沦陷</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%97%9D%E8%A1%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8A%BD%E8%B1%A1%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
     <t>抽象艺术</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
     <t>韩国语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AD%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%B3%E8%AD%AF</t>
   </si>
   <si>
     <t>音译</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%83%E5%AD%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%96%83%E5%AD%97</t>
   </si>
   <si>
     <t>喃字</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BF%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E4%BF%8A</t>
   </si>
   <si>
     <t>李俊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%80%A7%E5%BD%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%BB%E6%80%A7%E5%BD%A5</t>
   </si>
   <si>
     <t>任性彦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%98%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%A2%E6%98%A0</t>
   </si>
   <si>
     <t>红映</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E9%9B%BB%E5%BD%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B6%8A%E5%8D%97%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
     <t>越南电影</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+    <t>https://zh.wikipedia.org/zh-cn/Wayback_Machine</t>
   </si>
   <si>
     <t>Wayback Machine</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
   </si>
   <si>
     <t>互联网电影数据库</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BF%E5%B1%8D%E9%AC%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9B%BF%E5%B1%8D%E9%AC%BC</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
